--- a/Data/LDJam_Physics.xlsx
+++ b/Data/LDJam_Physics.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Feder" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Draft" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t xml:space="preserve">Ladegewicht</t>
   </si>
@@ -76,6 +77,30 @@
   <si>
     <t xml:space="preserve">F</t>
   </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x [m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v [m/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a [m/s2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F [N]</t>
+  </si>
 </sst>
 </file>
 
@@ -85,7 +110,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -118,6 +143,11 @@
       <sz val="9"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -230,8 +260,8 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -244,7 +274,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3367,11 +3397,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="68267908"/>
-        <c:axId val="65666726"/>
+        <c:axId val="78279162"/>
+        <c:axId val="9291696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68267908"/>
+        <c:axId val="78279162"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3413,12 +3443,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65666726"/>
+        <c:crossAx val="9291696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65666726"/>
+        <c:axId val="9291696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3460,7 +3490,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68267908"/>
+        <c:crossAx val="78279162"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3488,7 +3518,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4691,11 +4721,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22919941"/>
-        <c:axId val="61207877"/>
+        <c:axId val="27867996"/>
+        <c:axId val="21345287"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22919941"/>
+        <c:axId val="27867996"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4737,12 +4767,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61207877"/>
+        <c:crossAx val="21345287"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61207877"/>
+        <c:axId val="21345287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4784,7 +4814,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22919941"/>
+        <c:crossAx val="27867996"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4812,6 +4842,1411 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x [m]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Draft!$A$7:$A$207</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.79999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.89999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.09999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.39999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.59999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.79999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.89999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.09999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.39999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.59999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.79999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.89999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.09999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.29999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.39999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.59999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.79999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.09999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.49999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.59999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.69999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.79999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.1</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.4</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.6</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.9</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.1</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.9</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.9</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.9</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Draft!$B$7:$B$207</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.019764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0239112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02722896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.029883168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0320065344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03370522752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.035064182016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0361513456128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.03702107649024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.037716861192192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0382734889537536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0387187911630029</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0390750329304023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0393600263443218</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0395880210754575</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.039770416860366</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0399163334882928</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0400330667906342</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0401264534325074</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0402011627460059</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0402609301968047</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0403087441574438</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.040346995325955</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.040377596260764</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0404020770086112</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.040421661606889</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0404373292855112</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0404498634284089</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0404598907427272</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0404679125941817</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0404743300753454</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0404794640602763</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.040483571248221</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0404868569985768</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0404894855988615</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0404915884790892</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0404932707832713</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0404946166266171</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0404956933012937</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0404965546410349</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0404972437128279</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0404977949702624</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0404982359762099</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0404985887809679</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0404988710247743</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0404990968198195</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0404992774558556</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0404994219646845</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0404995375717476</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0404996300573981</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0404997040459184</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0404997632367348</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0404998105893878</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0404998484715102</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0404998787772082</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0404999030217666</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0404999224174132</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0404999379339306</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0404999503471445</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0404999602777156</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0404999682221725</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.040499974577738</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0404999796621904</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0404999837297523</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0404999869838018</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0404999895870415</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0404999916696332</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0404999933357065</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0404999946685652</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0404999957348522</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0404999965878818</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0404999972703054</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0404999978162443</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0404999982529955</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0404999986023964</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0404999988819171</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0404999991055337</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0404999992844269</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0404999994275416</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0404999995420332</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0404999996336266</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0404999997069013</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.040499999765521</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0404999998124168</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0404999998499335</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0404999998799468</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0404999999039574</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0404999999231659</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0404999999385327</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0404999999508262</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.040499999960661</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0404999999685288</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.040499999974823</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0404999999798584</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0404999999838867</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.0404999999871094</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.0404999999896875</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.04049999999175</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.0404999999934</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.04049999999472</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.040499999995776</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.0404999999966208</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.0404999999972966</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.0404999999978373</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.0404999999982699</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.0404999999986159</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.0404999999988927</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.0404999999991142</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0404999999992913</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.0404999999994331</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.0404999999995465</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.0404999999996372</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.0404999999997097</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.0404999999997678</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0404999999998142</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.0404999999998514</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.0404999999998811</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.0404999999999049</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.0404999999999239</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.0404999999999391</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.0404999999999513</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.040499999999961</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.0404999999999688</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.0404999999999751</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.0404999999999801</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.040499999999984</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.0404999999999872</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.0404999999999898</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.0404999999999918</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.0404999999999935</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.0404999999999948</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.0404999999999958</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.0404999999999967</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.0404999999999973</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.0404999999999979</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.0404999999999983</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.0404999999999986</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.0404999999999989</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.0404999999999991</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.0404999999999993</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.0404999999999994</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.0404999999999996</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.0404999999999997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.0404999999999997</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.0404999999999998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.0404999999999998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.0405</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.0404999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="67639967"/>
+        <c:axId val="46807189"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="67639967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46807189"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46807189"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67639967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4823,9 +6258,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
+      <xdr:colOff>138960</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4833,8 +6268,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7122600" y="399960"/>
-        <a:ext cx="9307440" cy="5504760"/>
+        <a:off x="7117920" y="399960"/>
+        <a:ext cx="9299880" cy="5504400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4858,9 +6293,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
+      <xdr:colOff>50040</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4868,8 +6303,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2354400" y="196920"/>
-        <a:ext cx="8977320" cy="5365440"/>
+        <a:off x="2353320" y="196920"/>
+        <a:ext cx="8969040" cy="5365080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>136800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>225720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4225320" y="786960"/>
+        <a:ext cx="5753880" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4889,11 +6359,11 @@
   </sheetPr>
   <dimension ref="A1:F509"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.67"/>
   </cols>
@@ -18034,7 +19504,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -19721,4 +21191,4289 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:E207"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">E7/$B$2</f>
+        <v>0.81</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">-B7*$B$3-$B$4*C7+$B$2*0.81</f>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">B7+C8*(A8-A7)</f>
+        <v>0.0081</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">C7+D7*(A8-A7)</f>
+        <v>0.081</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">E8/$B$2</f>
+        <v>-0.162</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">-B8*$B$3-$B$4*C8+$B$2*0.81</f>
+        <v>-0.324</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">B8+C9*(A9-A8)</f>
+        <v>0.01458</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">C8+D8*(A9-A8)</f>
+        <v>0.0648</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">E9/$B$2</f>
+        <v>-0.1296</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">-B9*$B$3-$B$4*C9+$B$2*0.81</f>
+        <v>-0.2592</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">B9+C10*(A10-A9)</f>
+        <v>0.019764</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">C9+D9*(A10-A9)</f>
+        <v>0.05184</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">E10/$B$2</f>
+        <v>-0.10368</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">-B10*$B$3-$B$4*C10+$B$2*0.81</f>
+        <v>-0.20736</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">B10+C11*(A11-A10)</f>
+        <v>0.0239112</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">C10+D10*(A11-A10)</f>
+        <v>0.041472</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">E11/$B$2</f>
+        <v>-0.0829440000000001</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">-B11*$B$3-$B$4*C11+$B$2*0.81</f>
+        <v>-0.165888</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">B11+C12*(A12-A11)</f>
+        <v>0.02722896</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">C11+D11*(A12-A11)</f>
+        <v>0.0331776</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">E12/$B$2</f>
+        <v>-0.0663551999999998</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">-B12*$B$3-$B$4*C12+$B$2*0.81</f>
+        <v>-0.1327104</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">B12+C13*(A13-A12)</f>
+        <v>0.029883168</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">C12+D12*(A13-A12)</f>
+        <v>0.02654208</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">E13/$B$2</f>
+        <v>-0.0530841600000001</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">-B13*$B$3-$B$4*C13+$B$2*0.81</f>
+        <v>-0.10616832</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">B13+C14*(A14-A13)</f>
+        <v>0.0320065344</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">C13+D13*(A14-A13)</f>
+        <v>0.021233664</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">E14/$B$2</f>
+        <v>-0.042467328</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">-B14*$B$3-$B$4*C14+$B$2*0.81</f>
+        <v>-0.0849346559999999</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">B14+C15*(A15-A14)</f>
+        <v>0.03370522752</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">C14+D14*(A15-A14)</f>
+        <v>0.0169869312</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">E15/$B$2</f>
+        <v>-0.0339738623999999</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">-B15*$B$3-$B$4*C15+$B$2*0.81</f>
+        <v>-0.0679477247999998</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">B15+C16*(A16-A15)</f>
+        <v>0.035064182016</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">C15+D15*(A16-A15)</f>
+        <v>0.01358954496</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">E16/$B$2</f>
+        <v>-0.0271790899200001</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">-B16*$B$3-$B$4*C16+$B$2*0.81</f>
+        <v>-0.0543581798400001</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">B16+C17*(A17-A16)</f>
+        <v>0.0361513456128</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">C16+D16*(A17-A16)</f>
+        <v>0.010871635968</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">E17/$B$2</f>
+        <v>-0.021743271936</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">-B17*$B$3-$B$4*C17+$B$2*0.81</f>
+        <v>-0.043486543872</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">B17+C18*(A18-A17)</f>
+        <v>0.03702107649024</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">C17+D17*(A18-A17)</f>
+        <v>0.0086973087744</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">E18/$B$2</f>
+        <v>-0.0173946175488</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">-B18*$B$3-$B$4*C18+$B$2*0.81</f>
+        <v>-0.0347892350976</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">B18+C19*(A19-A18)</f>
+        <v>0.037716861192192</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">C18+D18*(A19-A18)</f>
+        <v>0.00695784701952</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">E19/$B$2</f>
+        <v>-0.01391569403904</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">-B19*$B$3-$B$4*C19+$B$2*0.81</f>
+        <v>-0.0278313880780801</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">B19+C20*(A20-A19)</f>
+        <v>0.0382734889537536</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">C19+D19*(A20-A19)</f>
+        <v>0.005566277615616</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">E20/$B$2</f>
+        <v>-0.011132555231232</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">-B20*$B$3-$B$4*C20+$B$2*0.81</f>
+        <v>-0.022265110462464</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">B20+C21*(A21-A20)</f>
+        <v>0.0387187911630029</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">C20+D20*(A21-A20)</f>
+        <v>0.0044530220924928</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">E21/$B$2</f>
+        <v>-0.00890604418498564</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">-B21*$B$3-$B$4*C21+$B$2*0.81</f>
+        <v>-0.0178120883699713</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">B21+C22*(A22-A21)</f>
+        <v>0.0390750329304023</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">C21+D21*(A22-A21)</f>
+        <v>0.00356241767399423</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">E22/$B$2</f>
+        <v>-0.00712483534798847</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">-B22*$B$3-$B$4*C22+$B$2*0.81</f>
+        <v>-0.0142496706959769</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">B22+C23*(A23-A22)</f>
+        <v>0.0393600263443218</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">C22+D22*(A23-A22)</f>
+        <v>0.00284993413919539</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">E23/$B$2</f>
+        <v>-0.00569986827839064</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">-B23*$B$3-$B$4*C23+$B$2*0.81</f>
+        <v>-0.0113997365567813</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">B23+C24*(A24-A23)</f>
+        <v>0.0395880210754575</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">C23+D23*(A24-A23)</f>
+        <v>0.00227994731135632</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">E24/$B$2</f>
+        <v>-0.00455989462271267</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">-B24*$B$3-$B$4*C24+$B$2*0.81</f>
+        <v>-0.00911978924542534</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">B24+C25*(A25-A24)</f>
+        <v>0.039770416860366</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">C24+D24*(A25-A24)</f>
+        <v>0.00182395784908505</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">E25/$B$2</f>
+        <v>-0.00364791569817013</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">-B25*$B$3-$B$4*C25+$B$2*0.81</f>
+        <v>-0.00729583139634027</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">B25+C26*(A26-A25)</f>
+        <v>0.0399163334882928</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">C25+D25*(A26-A25)</f>
+        <v>0.00145916627926804</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">E26/$B$2</f>
+        <v>-0.00291833255853613</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">-B26*$B$3-$B$4*C26+$B$2*0.81</f>
+        <v>-0.00583666511707226</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">B26+C27*(A27-A26)</f>
+        <v>0.0400330667906342</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">C26+D26*(A27-A26)</f>
+        <v>0.00116733302341443</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">E27/$B$2</f>
+        <v>-0.00233466604682886</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">-B27*$B$3-$B$4*C27+$B$2*0.81</f>
+        <v>-0.00466933209365772</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">B27+C28*(A28-A27)</f>
+        <v>0.0401264534325074</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">C27+D27*(A28-A27)</f>
+        <v>0.000933866418731543</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">E28/$B$2</f>
+        <v>-0.001867732837463</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">-B28*$B$3-$B$4*C28+$B$2*0.81</f>
+        <v>-0.003735465674926</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">B28+C29*(A29-A28)</f>
+        <v>0.0402011627460059</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">C28+D28*(A29-A28)</f>
+        <v>0.000747093134985243</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">E29/$B$2</f>
+        <v>-0.00149418626997055</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">-B29*$B$3-$B$4*C29+$B$2*0.81</f>
+        <v>-0.00298837253994111</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">B29+C30*(A30-A29)</f>
+        <v>0.0402609301968047</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">C29+D29*(A30-A29)</f>
+        <v>0.000597674507988187</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">E30/$B$2</f>
+        <v>-0.00119534901597629</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">-B30*$B$3-$B$4*C30+$B$2*0.81</f>
+        <v>-0.00239069803195258</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">B30+C31*(A31-A30)</f>
+        <v>0.0403087441574438</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">C30+D30*(A31-A30)</f>
+        <v>0.000478139606390559</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">E31/$B$2</f>
+        <v>-0.000956279212781186</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">-B31*$B$3-$B$4*C31+$B$2*0.81</f>
+        <v>-0.00191255842556237</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">B31+C32*(A32-A31)</f>
+        <v>0.040346995325955</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">C31+D31*(A32-A31)</f>
+        <v>0.00038251168511244</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">E32/$B$2</f>
+        <v>-0.000765023370224882</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">-B32*$B$3-$B$4*C32+$B$2*0.81</f>
+        <v>-0.00153004674044976</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">B32+C33*(A33-A32)</f>
+        <v>0.040377596260764</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <f aca="false">C32+D32*(A33-A32)</f>
+        <v>0.000306009348089952</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">E33/$B$2</f>
+        <v>-0.000612018696179772</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">-B33*$B$3-$B$4*C33+$B$2*0.81</f>
+        <v>-0.00122403739235955</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">B33+C34*(A34-A33)</f>
+        <v>0.0404020770086112</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <f aca="false">C33+D33*(A34-A33)</f>
+        <v>0.000244807478471975</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">E34/$B$2</f>
+        <v>-0.000489614956943885</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">-B34*$B$3-$B$4*C34+$B$2*0.81</f>
+        <v>-0.000979229913887769</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <f aca="false">B34+C35*(A35-A34)</f>
+        <v>0.040421661606889</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <f aca="false">C34+D34*(A35-A34)</f>
+        <v>0.000195845982777586</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">E35/$B$2</f>
+        <v>-0.000391691965555219</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">-B35*$B$3-$B$4*C35+$B$2*0.81</f>
+        <v>-0.000783383931110437</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <f aca="false">B35+C36*(A36-A35)</f>
+        <v>0.0404373292855112</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <f aca="false">C35+D35*(A36-A35)</f>
+        <v>0.000156676786222064</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">E36/$B$2</f>
+        <v>-0.000313353572443997</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">-B36*$B$3-$B$4*C36+$B$2*0.81</f>
+        <v>-0.000626707144887995</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <f aca="false">B36+C37*(A37-A36)</f>
+        <v>0.0404498634284089</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <f aca="false">C36+D36*(A37-A36)</f>
+        <v>0.000125341428977664</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">E37/$B$2</f>
+        <v>-0.000250682857955375</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">-B37*$B$3-$B$4*C37+$B$2*0.81</f>
+        <v>-0.000501365715910751</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <f aca="false">B37+C38*(A38-A37)</f>
+        <v>0.0404598907427272</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <f aca="false">C37+D37*(A38-A37)</f>
+        <v>0.000100273143182127</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">E38/$B$2</f>
+        <v>-0.000200546286364234</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">-B38*$B$3-$B$4*C38+$B$2*0.81</f>
+        <v>-0.000401092572728468</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <f aca="false">B38+C39*(A39-A38)</f>
+        <v>0.0404679125941817</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <f aca="false">C38+D38*(A39-A38)</f>
+        <v>8.02185145457036E-005</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">E39/$B$2</f>
+        <v>-0.000160437029091409</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">-B39*$B$3-$B$4*C39+$B$2*0.81</f>
+        <v>-0.000320874058182818</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <f aca="false">B39+C40*(A40-A39)</f>
+        <v>0.0404743300753454</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <f aca="false">C39+D39*(A40-A39)</f>
+        <v>6.41748116365626E-005</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">E40/$B$2</f>
+        <v>-0.000128349623273127</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">-B40*$B$3-$B$4*C40+$B$2*0.81</f>
+        <v>-0.000256699246546255</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <f aca="false">B40+C41*(A41-A40)</f>
+        <v>0.0404794640602763</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <f aca="false">C40+D40*(A41-A40)</f>
+        <v>5.13398493092499E-005</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <f aca="false">E41/$B$2</f>
+        <v>-0.000102679698618546</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">-B41*$B$3-$B$4*C41+$B$2*0.81</f>
+        <v>-0.000205359397237093</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <f aca="false">B41+C42*(A42-A41)</f>
+        <v>0.040483571248221</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <f aca="false">C41+D41*(A42-A41)</f>
+        <v>4.10718794473953E-005</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <f aca="false">E42/$B$2</f>
+        <v>-8.21437588948148E-005</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <f aca="false">-B42*$B$3-$B$4*C42+$B$2*0.81</f>
+        <v>-0.00016428751778963</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <f aca="false">B42+C43*(A43-A42)</f>
+        <v>0.0404868569985768</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <f aca="false">C42+D42*(A43-A42)</f>
+        <v>3.28575035579138E-005</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <f aca="false">E43/$B$2</f>
+        <v>-6.57150071158297E-005</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <f aca="false">-B43*$B$3-$B$4*C43+$B$2*0.81</f>
+        <v>-0.000131430014231659</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <f aca="false">B43+C44*(A44-A43)</f>
+        <v>0.0404894855988615</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <f aca="false">C43+D43*(A44-A43)</f>
+        <v>2.62860028463308E-005</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <f aca="false">E44/$B$2</f>
+        <v>-5.25720056925305E-005</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <f aca="false">-B44*$B$3-$B$4*C44+$B$2*0.81</f>
+        <v>-0.000105144011385061</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <f aca="false">B44+C45*(A45-A44)</f>
+        <v>0.0404915884790892</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <f aca="false">C44+D44*(A45-A44)</f>
+        <v>2.10288022770778E-005</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <f aca="false">E45/$B$2</f>
+        <v>-4.20576045542243E-005</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">-B45*$B$3-$B$4*C45+$B$2*0.81</f>
+        <v>-8.41152091084485E-005</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <f aca="false">B45+C46*(A46-A45)</f>
+        <v>0.0404932707832713</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <f aca="false">C45+D45*(A46-A45)</f>
+        <v>1.68230418216553E-005</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <f aca="false">E46/$B$2</f>
+        <v>-3.36460836433128E-005</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">-B46*$B$3-$B$4*C46+$B$2*0.81</f>
+        <v>-6.72921672866256E-005</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <f aca="false">B46+C47*(A47-A46)</f>
+        <v>0.0404946166266171</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <f aca="false">C46+D46*(A47-A46)</f>
+        <v>1.34584334573241E-005</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">E47/$B$2</f>
+        <v>-2.69168669146946E-005</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">-B47*$B$3-$B$4*C47+$B$2*0.81</f>
+        <v>-5.38337338293893E-005</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <f aca="false">B47+C48*(A48-A47)</f>
+        <v>0.0404956933012937</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <f aca="false">C47+D47*(A48-A47)</f>
+        <v>1.07667467658546E-005</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">E48/$B$2</f>
+        <v>-2.15334935317335E-005</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">-B48*$B$3-$B$4*C48+$B$2*0.81</f>
+        <v>-4.3066987063467E-005</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <f aca="false">B48+C49*(A49-A48)</f>
+        <v>0.0404965546410349</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <f aca="false">C48+D48*(A49-A48)</f>
+        <v>8.61339741268128E-006</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <f aca="false">E49/$B$2</f>
+        <v>-1.7226794825409E-005</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">-B49*$B$3-$B$4*C49+$B$2*0.81</f>
+        <v>-3.4453589650818E-005</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <f aca="false">B49+C50*(A50-A49)</f>
+        <v>0.0404972437128279</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <f aca="false">C49+D49*(A50-A49)</f>
+        <v>6.89071793014039E-006</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">E50/$B$2</f>
+        <v>-1.37814358602828E-005</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <f aca="false">-B50*$B$3-$B$4*C50+$B$2*0.81</f>
+        <v>-2.75628717205656E-005</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">B50+C51*(A51-A50)</f>
+        <v>0.0404977949702624</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <f aca="false">C50+D50*(A51-A50)</f>
+        <v>5.51257434411211E-006</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">E51/$B$2</f>
+        <v>-1.10251486881152E-005</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">-B51*$B$3-$B$4*C51+$B$2*0.81</f>
+        <v>-2.20502973762304E-005</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <f aca="false">B51+C52*(A52-A51)</f>
+        <v>0.0404982359762099</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <f aca="false">C51+D51*(A52-A51)</f>
+        <v>4.4100594753006E-006</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <f aca="false">E52/$B$2</f>
+        <v>-8.8201189506476E-006</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <f aca="false">-B52*$B$3-$B$4*C52+$B$2*0.81</f>
+        <v>-1.76402379012952E-005</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <f aca="false">B52+C53*(A53-A52)</f>
+        <v>0.0404985887809679</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <f aca="false">C52+D52*(A53-A52)</f>
+        <v>3.52804758023584E-006</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <f aca="false">E53/$B$2</f>
+        <v>-7.05609516049588E-006</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <f aca="false">-B53*$B$3-$B$4*C53+$B$2*0.81</f>
+        <v>-1.41121903209918E-005</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <f aca="false">B53+C54*(A54-A53)</f>
+        <v>0.0404988710247743</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <f aca="false">C53+D53*(A54-A53)</f>
+        <v>2.82243806418625E-006</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <f aca="false">E54/$B$2</f>
+        <v>-5.64487612841891E-006</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <f aca="false">-B54*$B$3-$B$4*C54+$B$2*0.81</f>
+        <v>-1.12897522568378E-005</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <f aca="false">B54+C55*(A55-A54)</f>
+        <v>0.0404990968198195</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <f aca="false">C54+D54*(A55-A54)</f>
+        <v>2.25795045134436E-006</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <f aca="false">E55/$B$2</f>
+        <v>-4.51590090255749E-006</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <f aca="false">-B55*$B$3-$B$4*C55+$B$2*0.81</f>
+        <v>-9.03180180511498E-006</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <f aca="false">B55+C56*(A56-A55)</f>
+        <v>0.0404992774558556</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <f aca="false">C55+D55*(A56-A55)</f>
+        <v>1.80636036108861E-006</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <f aca="false">E56/$B$2</f>
+        <v>-3.61272072224583E-006</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <f aca="false">-B56*$B$3-$B$4*C56+$B$2*0.81</f>
+        <v>-7.22544144449167E-006</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <f aca="false">B56+C57*(A57-A56)</f>
+        <v>0.0404994219646845</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <f aca="false">C56+D56*(A57-A56)</f>
+        <v>1.44508828886403E-006</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <f aca="false">E57/$B$2</f>
+        <v>-2.89017657773005E-006</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <f aca="false">-B57*$B$3-$B$4*C57+$B$2*0.81</f>
+        <v>-5.78035315546011E-006</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <f aca="false">B57+C58*(A58-A57)</f>
+        <v>0.0404995375717476</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <f aca="false">C57+D57*(A58-A57)</f>
+        <v>1.15607063109103E-006</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <f aca="false">E58/$B$2</f>
+        <v>-2.31214126222845E-006</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <f aca="false">-B58*$B$3-$B$4*C58+$B$2*0.81</f>
+        <v>-4.6242825244569E-006</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <f aca="false">B58+C59*(A59-A58)</f>
+        <v>0.0404996300573981</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <f aca="false">C58+D58*(A59-A58)</f>
+        <v>9.24856504868182E-007</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <f aca="false">E59/$B$2</f>
+        <v>-1.84971300964953E-006</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <f aca="false">-B59*$B$3-$B$4*C59+$B$2*0.81</f>
+        <v>-3.69942601929907E-006</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <f aca="false">B59+C60*(A60-A59)</f>
+        <v>0.0404997040459184</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <f aca="false">C59+D59*(A60-A59)</f>
+        <v>7.39885203903229E-007</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <f aca="false">E60/$B$2</f>
+        <v>-1.47977040798608E-006</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <f aca="false">-B60*$B$3-$B$4*C60+$B$2*0.81</f>
+        <v>-2.95954081597216E-006</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <f aca="false">B60+C61*(A61-A60)</f>
+        <v>0.0404997632367348</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <f aca="false">C60+D60*(A61-A60)</f>
+        <v>5.91908163104622E-007</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <f aca="false">E61/$B$2</f>
+        <v>-1.18381632618902E-006</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <f aca="false">-B61*$B$3-$B$4*C61+$B$2*0.81</f>
+        <v>-2.36763265237805E-006</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <f aca="false">B61+C62*(A62-A61)</f>
+        <v>0.0404998105893878</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <f aca="false">C61+D61*(A62-A61)</f>
+        <v>4.7352653048572E-007</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <f aca="false">E62/$B$2</f>
+        <v>-9.47053060973424E-007</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <f aca="false">-B62*$B$3-$B$4*C62+$B$2*0.81</f>
+        <v>-1.89410612194685E-006</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <f aca="false">B62+C63*(A63-A62)</f>
+        <v>0.0404998484715102</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <f aca="false">C62+D62*(A63-A62)</f>
+        <v>3.78821224388378E-007</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <f aca="false">E63/$B$2</f>
+        <v>-7.57642448778739E-007</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <f aca="false">-B63*$B$3-$B$4*C63+$B$2*0.81</f>
+        <v>-1.51528489755748E-006</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <f aca="false">B63+C64*(A64-A63)</f>
+        <v>0.0404998787772082</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <f aca="false">C63+D63*(A64-A63)</f>
+        <v>3.03056979510504E-007</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <f aca="false">E64/$B$2</f>
+        <v>-6.06113959022991E-007</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <f aca="false">-B64*$B$3-$B$4*C64+$B$2*0.81</f>
+        <v>-1.21222791804598E-006</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>5.79999999999999</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <f aca="false">B64+C65*(A65-A64)</f>
+        <v>0.0404999030217666</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <f aca="false">C64+D64*(A65-A64)</f>
+        <v>2.42445583608205E-007</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <f aca="false">E65/$B$2</f>
+        <v>-4.84891167218393E-007</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <f aca="false">-B65*$B$3-$B$4*C65+$B$2*0.81</f>
+        <v>-9.69782334436786E-007</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>5.89999999999999</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <f aca="false">B65+C66*(A66-A65)</f>
+        <v>0.0404999224174132</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <f aca="false">C65+D65*(A66-A65)</f>
+        <v>1.93956466886366E-007</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <f aca="false">E66/$B$2</f>
+        <v>-3.87912933663692E-007</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <f aca="false">-B66*$B$3-$B$4*C66+$B$2*0.81</f>
+        <v>-7.75825867327384E-007</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <f aca="false">B66+C67*(A67-A66)</f>
+        <v>0.0404999379339306</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <f aca="false">C66+D66*(A67-A66)</f>
+        <v>1.55165173519996E-007</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <f aca="false">E67/$B$2</f>
+        <v>-3.10330346975363E-007</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <f aca="false">-B67*$B$3-$B$4*C67+$B$2*0.81</f>
+        <v>-6.20660693950725E-007</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>6.09999999999999</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <f aca="false">B67+C68*(A68-A67)</f>
+        <v>0.0404999503471445</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <f aca="false">C67+D67*(A68-A67)</f>
+        <v>1.2413213882246E-007</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <f aca="false">E68/$B$2</f>
+        <v>-2.48264277691312E-007</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <f aca="false">-B68*$B$3-$B$4*C68+$B$2*0.81</f>
+        <v>-4.96528555382625E-007</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>6.19999999999999</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <f aca="false">B68+C69*(A69-A68)</f>
+        <v>0.0404999602777156</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <f aca="false">C68+D68*(A69-A68)</f>
+        <v>9.93057110533291E-008</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <f aca="false">E69/$B$2</f>
+        <v>-1.98611422086437E-007</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <f aca="false">-B69*$B$3-$B$4*C69+$B$2*0.81</f>
+        <v>-3.97222844172873E-007</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>6.29999999999999</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <f aca="false">B69+C70*(A70-A69)</f>
+        <v>0.0404999682221725</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <f aca="false">C69+D69*(A70-A69)</f>
+        <v>7.94445688446855E-008</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <f aca="false">E70/$B$2</f>
+        <v>-1.58889137735763E-007</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <f aca="false">-B70*$B$3-$B$4*C70+$B$2*0.81</f>
+        <v>-3.17778275471525E-007</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>6.39999999999999</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <f aca="false">B70+C71*(A71-A70)</f>
+        <v>0.040499974577738</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <f aca="false">C70+D70*(A71-A70)</f>
+        <v>6.35556550711093E-008</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <f aca="false">E71/$B$2</f>
+        <v>-1.27111310033179E-007</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <f aca="false">-B71*$B$3-$B$4*C71+$B$2*0.81</f>
+        <v>-2.54222620066358E-007</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>6.49999999999999</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <f aca="false">B71+C72*(A72-A71)</f>
+        <v>0.0404999796621904</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <f aca="false">C71+D71*(A72-A71)</f>
+        <v>5.08445240677915E-008</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <f aca="false">E72/$B$2</f>
+        <v>-1.01689048181974E-007</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <f aca="false">-B72*$B$3-$B$4*C72+$B$2*0.81</f>
+        <v>-2.03378096363949E-007</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>6.59999999999999</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <f aca="false">B72+C73*(A73-A72)</f>
+        <v>0.0404999837297523</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <f aca="false">C72+D72*(A73-A72)</f>
+        <v>4.06756192495941E-008</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <f aca="false">E73/$B$2</f>
+        <v>-8.1351238523375E-008</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <f aca="false">-B73*$B$3-$B$4*C73+$B$2*0.81</f>
+        <v>-1.6270247704675E-007</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>6.69999999999999</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <f aca="false">B73+C74*(A74-A73)</f>
+        <v>0.0404999869838018</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <f aca="false">C73+D73*(A74-A73)</f>
+        <v>3.25404953972566E-008</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <f aca="false">E74/$B$2</f>
+        <v>-6.50809907076777E-008</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <f aca="false">-B74*$B$3-$B$4*C74+$B$2*0.81</f>
+        <v>-1.30161981415355E-007</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>6.79999999999999</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <f aca="false">B74+C75*(A75-A74)</f>
+        <v>0.0404999895870415</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <f aca="false">C74+D74*(A75-A74)</f>
+        <v>2.60323963264889E-008</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <f aca="false">E75/$B$2</f>
+        <v>-5.20647926993689E-008</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <f aca="false">-B75*$B$3-$B$4*C75+$B$2*0.81</f>
+        <v>-1.04129585398738E-007</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>6.89999999999999</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <f aca="false">B75+C76*(A76-A75)</f>
+        <v>0.0404999916696332</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <f aca="false">C75+D75*(A76-A75)</f>
+        <v>2.0825917056552E-008</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <f aca="false">E76/$B$2</f>
+        <v>-4.16518339818595E-008</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <f aca="false">-B76*$B$3-$B$4*C76+$B$2*0.81</f>
+        <v>-8.33036679637189E-008</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>6.99999999999999</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <f aca="false">B76+C77*(A77-A76)</f>
+        <v>0.0404999933357065</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <f aca="false">C76+D76*(A77-A76)</f>
+        <v>1.66607336583661E-008</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <f aca="false">E77/$B$2</f>
+        <v>-3.33214672521009E-008</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <f aca="false">-B77*$B$3-$B$4*C77+$B$2*0.81</f>
+        <v>-6.66429345042019E-008</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>7.09999999999999</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <f aca="false">B77+C78*(A78-A77)</f>
+        <v>0.0404999946685652</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <f aca="false">C77+D77*(A78-A77)</f>
+        <v>1.3328586933156E-008</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <f aca="false">E78/$B$2</f>
+        <v>-2.66571739127031E-008</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <f aca="false">-B78*$B$3-$B$4*C78+$B$2*0.81</f>
+        <v>-5.33143478254061E-008</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>7.19999999999999</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <f aca="false">B78+C79*(A79-A78)</f>
+        <v>0.0404999957348522</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <f aca="false">C78+D78*(A79-A78)</f>
+        <v>1.06628695418857E-008</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <f aca="false">E79/$B$2</f>
+        <v>-2.13257390635491E-008</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <f aca="false">-B79*$B$3-$B$4*C79+$B$2*0.81</f>
+        <v>-4.26514781270981E-008</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>7.29999999999999</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <f aca="false">B79+C80*(A80-A79)</f>
+        <v>0.0404999965878818</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <f aca="false">C79+D79*(A80-A79)</f>
+        <v>8.53029563553078E-009</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <f aca="false">E80/$B$2</f>
+        <v>-1.70605912730437E-008</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <f aca="false">-B80*$B$3-$B$4*C80+$B$2*0.81</f>
+        <v>-3.41211825460874E-008</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>7.39999999999999</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <f aca="false">B80+C81*(A81-A80)</f>
+        <v>0.0404999972703054</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <f aca="false">C80+D80*(A81-A80)</f>
+        <v>6.82423650822642E-009</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <f aca="false">E81/$B$2</f>
+        <v>-1.3648473018435E-008</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <f aca="false">-B81*$B$3-$B$4*C81+$B$2*0.81</f>
+        <v>-2.72969460368699E-008</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>7.49999999999999</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <f aca="false">B81+C82*(A82-A81)</f>
+        <v>0.0404999978162443</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <f aca="false">C81+D81*(A82-A81)</f>
+        <v>5.45938920638293E-009</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <f aca="false">E82/$B$2</f>
+        <v>-1.09187783259301E-008</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <f aca="false">-B82*$B$3-$B$4*C82+$B$2*0.81</f>
+        <v>-2.18375566518603E-008</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>7.59999999999999</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <f aca="false">B82+C83*(A83-A82)</f>
+        <v>0.0404999982529955</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <f aca="false">C82+D82*(A83-A82)</f>
+        <v>4.36751137378992E-009</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <f aca="false">E83/$B$2</f>
+        <v>-8.73502270515303E-009</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <f aca="false">-B83*$B$3-$B$4*C83+$B$2*0.81</f>
+        <v>-1.74700454103061E-008</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>7.69999999999999</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <f aca="false">B83+C84*(A84-A83)</f>
+        <v>0.0404999986023964</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <f aca="false">C83+D83*(A84-A83)</f>
+        <v>3.49400910327462E-009</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <f aca="false">E84/$B$2</f>
+        <v>-6.98801827514473E-009</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <f aca="false">-B84*$B$3-$B$4*C84+$B$2*0.81</f>
+        <v>-1.39760365502895E-008</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>7.79999999999999</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <f aca="false">B84+C85*(A85-A84)</f>
+        <v>0.0404999988819171</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <f aca="false">C84+D84*(A85-A84)</f>
+        <v>2.79520727576015E-009</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <f aca="false">E85/$B$2</f>
+        <v>-5.59041446468456E-009</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <f aca="false">-B85*$B$3-$B$4*C85+$B$2*0.81</f>
+        <v>-1.11808289293691E-008</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>7.89999999999999</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <f aca="false">B85+C86*(A86-A85)</f>
+        <v>0.0404999991055337</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <f aca="false">C85+D85*(A86-A85)</f>
+        <v>2.23616582929169E-009</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <f aca="false">E86/$B$2</f>
+        <v>-4.47233172717887E-009</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <f aca="false">-B86*$B$3-$B$4*C86+$B$2*0.81</f>
+        <v>-8.94466345435774E-009</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>7.99999999999999</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <f aca="false">B86+C87*(A87-A86)</f>
+        <v>0.0404999992844269</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <f aca="false">C86+D86*(A87-A86)</f>
+        <v>1.7889326565738E-009</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <f aca="false">E87/$B$2</f>
+        <v>-3.57786533733417E-009</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <f aca="false">-B87*$B$3-$B$4*C87+$B$2*0.81</f>
+        <v>-7.15573067466835E-009</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>8.09999999999999</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <f aca="false">B87+C88*(A88-A87)</f>
+        <v>0.0404999994275416</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <f aca="false">C87+D87*(A88-A87)</f>
+        <v>1.43114612284039E-009</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <f aca="false">E88/$B$2</f>
+        <v>-2.8622922920718E-009</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <f aca="false">-B88*$B$3-$B$4*C88+$B$2*0.81</f>
+        <v>-5.7245845841436E-009</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>8.19999999999999</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <f aca="false">B88+C89*(A89-A88)</f>
+        <v>0.0404999995420332</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <f aca="false">C88+D88*(A89-A88)</f>
+        <v>1.14491689363321E-009</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <f aca="false">E89/$B$2</f>
+        <v>-2.28983365602176E-009</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <f aca="false">-B89*$B$3-$B$4*C89+$B$2*0.81</f>
+        <v>-4.57966731204351E-009</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>8.29999999999999</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <f aca="false">B89+C90*(A90-A89)</f>
+        <v>0.0404999996336266</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <f aca="false">C89+D89*(A90-A89)</f>
+        <v>9.15933528031037E-010</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <f aca="false">E90/$B$2</f>
+        <v>-1.83186710245309E-009</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <f aca="false">-B90*$B$3-$B$4*C90+$B$2*0.81</f>
+        <v>-3.66373420490618E-009</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>8.39999999999999</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <f aca="false">B90+C91*(A91-A90)</f>
+        <v>0.0404999997069013</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <f aca="false">C90+D90*(A91-A90)</f>
+        <v>7.32746817785726E-010</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <f aca="false">E91/$B$2</f>
+        <v>-1.46549361534909E-009</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <f aca="false">-B91*$B$3-$B$4*C91+$B$2*0.81</f>
+        <v>-2.93098723069818E-009</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>8.49999999999999</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <f aca="false">B91+C92*(A92-A91)</f>
+        <v>0.040499999765521</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <f aca="false">C91+D91*(A92-A91)</f>
+        <v>5.8619745625082E-010</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <f aca="false">E92/$B$2</f>
+        <v>-1.17239495889265E-009</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <f aca="false">-B92*$B$3-$B$4*C92+$B$2*0.81</f>
+        <v>-2.34478991778531E-009</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>8.59999999999999</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <f aca="false">B92+C93*(A93-A92)</f>
+        <v>0.0404999998124168</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <f aca="false">C92+D92*(A93-A92)</f>
+        <v>4.68957960361553E-010</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <f aca="false">E93/$B$2</f>
+        <v>-9.3791585609182E-010</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <f aca="false">-B93*$B$3-$B$4*C93+$B$2*0.81</f>
+        <v>-1.87583171218364E-009</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>8.69999999999999</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <f aca="false">B93+C94*(A94-A93)</f>
+        <v>0.0404999998499335</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <f aca="false">C93+D93*(A94-A93)</f>
+        <v>3.75166374752373E-010</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <f aca="false">E94/$B$2</f>
+        <v>-7.50332795895758E-010</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <f aca="false">-B94*$B$3-$B$4*C94+$B$2*0.81</f>
+        <v>-1.50066559179152E-009</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>8.79999999999999</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <f aca="false">B94+C95*(A95-A94)</f>
+        <v>0.0404999998799468</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <f aca="false">C94+D94*(A95-A94)</f>
+        <v>3.00133095162796E-010</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <f aca="false">E95/$B$2</f>
+        <v>-6.00266170103225E-010</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <f aca="false">-B95*$B$3-$B$4*C95+$B$2*0.81</f>
+        <v>-1.20053234020645E-009</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>8.89999999999998</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <f aca="false">B95+C96*(A96-A95)</f>
+        <v>0.0404999999039574</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <f aca="false">C95+D95*(A96-A95)</f>
+        <v>2.40106478152475E-010</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <f aca="false">E96/$B$2</f>
+        <v>-4.80212980491501E-010</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <f aca="false">-B96*$B$3-$B$4*C96+$B$2*0.81</f>
+        <v>-9.60425960983002E-010</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>8.99999999999999</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <f aca="false">B96+C97*(A97-A96)</f>
+        <v>0.0404999999231659</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <f aca="false">C96+D96*(A97-A96)</f>
+        <v>1.92085180103324E-010</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <f aca="false">E97/$B$2</f>
+        <v>-3.8417036218874E-010</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <f aca="false">-B97*$B$3-$B$4*C97+$B$2*0.81</f>
+        <v>-7.68340724377481E-010</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>9.09999999999998</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <f aca="false">B97+C98*(A98-A97)</f>
+        <v>0.0404999999385327</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <f aca="false">C97+D97*(A98-A97)</f>
+        <v>1.53668143884451E-010</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <f aca="false">E98/$B$2</f>
+        <v>-3.07336156524229E-010</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <f aca="false">-B98*$B$3-$B$4*C98+$B$2*0.81</f>
+        <v>-6.14672313048459E-010</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>9.19999999999999</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <f aca="false">B98+C99*(A99-A98)</f>
+        <v>0.0404999999508262</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <f aca="false">C98+D98*(A99-A98)</f>
+        <v>1.22934528232027E-010</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <f aca="false">E99/$B$2</f>
+        <v>-2.45869102855067E-010</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <f aca="false">-B99*$B$3-$B$4*C99+$B$2*0.81</f>
+        <v>-4.91738205710135E-010</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>9.29999999999998</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <f aca="false">B99+C100*(A100-A99)</f>
+        <v>0.040499999960661</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <f aca="false">C99+D99*(A100-A99)</f>
+        <v>9.83476179465209E-011</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <f aca="false">E100/$B$2</f>
+        <v>-1.96695215670673E-010</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <f aca="false">-B100*$B$3-$B$4*C100+$B$2*0.81</f>
+        <v>-3.93390431341345E-010</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>9.39999999999998</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <f aca="false">B100+C101*(A101-A100)</f>
+        <v>0.0404999999685288</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <f aca="false">C100+D100*(A101-A100)</f>
+        <v>7.86780963794534E-011</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <f aca="false">E101/$B$2</f>
+        <v>-1.57356239149919E-010</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <f aca="false">-B101*$B$3-$B$4*C101+$B$2*0.81</f>
+        <v>-3.14712478299839E-010</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>9.49999999999998</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <f aca="false">B101+C102*(A102-A101)</f>
+        <v>0.040499999974823</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <f aca="false">C101+D101*(A102-A101)</f>
+        <v>6.29424724644615E-011</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <f aca="false">E102/$B$2</f>
+        <v>-1.25884969115475E-010</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <f aca="false">-B102*$B$3-$B$4*C102+$B$2*0.81</f>
+        <v>-2.5176993823095E-010</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>9.59999999999998</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <f aca="false">B102+C103*(A103-A102)</f>
+        <v>0.0404999999798584</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <f aca="false">C102+D102*(A103-A102)</f>
+        <v>5.0353975552914E-011</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <f aca="false">E103/$B$2</f>
+        <v>-1.00707997496841E-010</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <f aca="false">-B103*$B$3-$B$4*C103+$B$2*0.81</f>
+        <v>-2.01415994993681E-010</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>9.69999999999998</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <f aca="false">B103+C104*(A104-A103)</f>
+        <v>0.0404999999838867</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <f aca="false">C103+D103*(A104-A103)</f>
+        <v>4.028317580323E-011</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <f aca="false">E104/$B$2</f>
+        <v>-8.0566331384091E-011</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <f aca="false">-B104*$B$3-$B$4*C104+$B$2*0.81</f>
+        <v>-1.61132662768182E-010</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>9.79999999999998</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <f aca="false">B104+C105*(A105-A104)</f>
+        <v>0.0404999999871094</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <f aca="false">C104+D104*(A105-A104)</f>
+        <v>3.22265426648209E-011</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <f aca="false">E105/$B$2</f>
+        <v>-6.44529984938913E-011</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <f aca="false">-B105*$B$3-$B$4*C105+$B$2*0.81</f>
+        <v>-1.28905996987783E-010</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>9.89999999999998</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <f aca="false">B105+C106*(A106-A105)</f>
+        <v>0.0404999999896875</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <f aca="false">C105+D105*(A106-A105)</f>
+        <v>2.57812428154318E-011</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <f aca="false">E106/$B$2</f>
+        <v>-5.1562532021876E-011</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <f aca="false">-B106*$B$3-$B$4*C106+$B$2*0.81</f>
+        <v>-1.03125064043752E-010</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>9.99999999999998</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <f aca="false">B106+C107*(A107-A106)</f>
+        <v>0.04049999999175</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <f aca="false">C106+D106*(A107-A106)</f>
+        <v>2.06249896132443E-011</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <f aca="false">E107/$B$2</f>
+        <v>-4.12498923907378E-011</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <f aca="false">-B107*$B$3-$B$4*C107+$B$2*0.81</f>
+        <v>-8.24997847814757E-011</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <f aca="false">B107+C108*(A108-A107)</f>
+        <v>0.0404999999934</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <f aca="false">C107+D107*(A108-A107)</f>
+        <v>1.65000003741705E-011</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <f aca="false">E108/$B$2</f>
+        <v>-3.30000471393532E-011</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <f aca="false">-B108*$B$3-$B$4*C108+$B$2*0.81</f>
+        <v>-6.60000942787065E-011</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <f aca="false">B108+C109*(A109-A108)</f>
+        <v>0.04049999999472</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <f aca="false">C108+D108*(A109-A108)</f>
+        <v>1.31999956602352E-011</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <f aca="false">E109/$B$2</f>
+        <v>-2.63999933025616E-011</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <f aca="false">-B109*$B$3-$B$4*C109+$B$2*0.81</f>
+        <v>-5.27999866051232E-011</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <f aca="false">B109+C110*(A110-A109)</f>
+        <v>0.040499999995776</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <f aca="false">C109+D109*(A110-A109)</f>
+        <v>1.0559996329979E-011</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <f aca="false">E110/$B$2</f>
+        <v>-2.11199946420493E-011</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <f aca="false">-B110*$B$3-$B$4*C110+$B$2*0.81</f>
+        <v>-4.22399892840986E-011</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <f aca="false">B110+C111*(A111-A110)</f>
+        <v>0.0404999999966208</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <f aca="false">C110+D110*(A111-A110)</f>
+        <v>8.44799686577411E-012</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <f aca="false">E111/$B$2</f>
+        <v>-1.68959291002579E-011</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <f aca="false">-B111*$B$3-$B$4*C111+$B$2*0.81</f>
+        <v>-3.37918582005159E-011</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <f aca="false">B111+C112*(A112-A111)</f>
+        <v>0.0404999999972966</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <f aca="false">C111+D111*(A112-A111)</f>
+        <v>6.75840395574832E-012</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <f aca="false">E112/$B$2</f>
+        <v>-1.35168543025088E-011</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <f aca="false">-B112*$B$3-$B$4*C112+$B$2*0.81</f>
+        <v>-2.70337086050176E-011</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <f aca="false">B112+C113*(A113-A112)</f>
+        <v>0.0404999999978373</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <f aca="false">C112+D112*(A113-A112)</f>
+        <v>5.40671852549744E-012</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <f aca="false">E113/$B$2</f>
+        <v>-1.08134612375466E-011</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <f aca="false">-B113*$B$3-$B$4*C113+$B$2*0.81</f>
+        <v>-2.16269224750931E-011</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <f aca="false">B113+C114*(A114-A113)</f>
+        <v>0.0404999999982699</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <f aca="false">C113+D113*(A114-A113)</f>
+        <v>4.32537240174279E-012</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <f aca="false">E114/$B$2</f>
+        <v>-8.65074678557676E-012</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <f aca="false">-B114*$B$3-$B$4*C114+$B$2*0.81</f>
+        <v>-1.73014935711535E-011</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <f aca="false">B114+C115*(A115-A114)</f>
+        <v>0.0404999999986159</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <f aca="false">C114+D114*(A115-A114)</f>
+        <v>3.46029772318511E-012</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <f aca="false">E115/$B$2</f>
+        <v>-6.92046420169845E-012</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <f aca="false">-B115*$B$3-$B$4*C115+$B$2*0.81</f>
+        <v>-1.38409284033969E-011</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <f aca="false">B115+C116*(A116-A115)</f>
+        <v>0.0404999999988927</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <f aca="false">C115+D115*(A116-A115)</f>
+        <v>2.76825130301527E-012</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <f aca="false">E116/$B$2</f>
+        <v>-5.53657120150319E-012</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <f aca="false">-B116*$B$3-$B$4*C116+$B$2*0.81</f>
+        <v>-1.10731424030064E-011</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <f aca="false">B116+C117*(A117-A116)</f>
+        <v>0.0404999999991142</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <f aca="false">C116+D116*(A117-A116)</f>
+        <v>2.21459418286495E-012</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <f aca="false">E117/$B$2</f>
+        <v>-4.42923475674206E-012</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <f aca="false">-B117*$B$3-$B$4*C117+$B$2*0.81</f>
+        <v>-8.85846951348412E-012</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <f aca="false">B117+C118*(A118-A117)</f>
+        <v>0.0404999999992913</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <f aca="false">C117+D117*(A118-A117)</f>
+        <v>1.77167070719075E-012</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <f aca="false">E118/$B$2</f>
+        <v>-3.54327678309119E-012</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <f aca="false">-B118*$B$3-$B$4*C118+$B$2*0.81</f>
+        <v>-7.08655356618237E-012</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <f aca="false">B118+C119*(A119-A118)</f>
+        <v>0.0404999999994331</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <f aca="false">C118+D118*(A119-A118)</f>
+        <v>1.41734302888163E-012</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <f aca="false">E119/$B$2</f>
+        <v>-2.83473244877541E-012</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <f aca="false">-B119*$B$3-$B$4*C119+$B$2*0.81</f>
+        <v>-5.66946489755082E-012</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <f aca="false">B119+C120*(A120-A119)</f>
+        <v>0.0404999999995465</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <f aca="false">C119+D119*(A120-A119)</f>
+        <v>1.13386978400409E-012</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <f aca="false">E120/$B$2</f>
+        <v>-2.26774155009934E-012</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <f aca="false">-B120*$B$3-$B$4*C120+$B$2*0.81</f>
+        <v>-4.53548310019869E-012</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <f aca="false">B120+C121*(A121-A120)</f>
+        <v>0.0404999999996372</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <f aca="false">C120+D120*(A121-A120)</f>
+        <v>9.07095628994157E-013</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <f aca="false">E121/$B$2</f>
+        <v>-1.81421544453997E-012</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <f aca="false">-B121*$B$3-$B$4*C121+$B$2*0.81</f>
+        <v>-3.62843088907994E-012</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <f aca="false">B121+C122*(A122-A121)</f>
+        <v>0.0404999999997097</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <f aca="false">C121+D121*(A122-A121)</f>
+        <v>7.25674084540157E-013</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <f aca="false">E122/$B$2</f>
+        <v>-1.45139456009247E-012</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <f aca="false">-B122*$B$3-$B$4*C122+$B$2*0.81</f>
+        <v>-2.90278912018493E-012</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <f aca="false">B122+C123*(A123-A122)</f>
+        <v>0.0404999999997678</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <f aca="false">C122+D122*(A123-A122)</f>
+        <v>5.80534628530914E-013</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <f aca="false">E123/$B$2</f>
+        <v>-1.16096021685053E-012</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <f aca="false">-B123*$B$3-$B$4*C123+$B$2*0.81</f>
+        <v>-2.32192043370105E-012</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <f aca="false">B123+C124*(A124-A123)</f>
+        <v>0.0404999999998142</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <f aca="false">C123+D123*(A124-A123)</f>
+        <v>4.6443860684586E-013</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <f aca="false">E124/$B$2</f>
+        <v>-9.28923604703869E-013</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <f aca="false">-B124*$B$3-$B$4*C124+$B$2*0.81</f>
+        <v>-1.85784720940774E-012</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <f aca="false">B124+C125*(A125-A124)</f>
+        <v>0.0404999999998514</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <f aca="false">C124+D124*(A125-A124)</f>
+        <v>3.71546246375475E-013</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <f aca="false">E125/$B$2</f>
+        <v>-7.43072270381617E-013</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <f aca="false">-B125*$B$3-$B$4*C125+$B$2*0.81</f>
+        <v>-1.48614454076323E-012</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <f aca="false">B125+C126*(A126-A125)</f>
+        <v>0.0404999999998811</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <f aca="false">C125+D125*(A126-A125)</f>
+        <v>2.97239019337312E-013</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <f aca="false">E126/$B$2</f>
+        <v>-5.94524429686771E-013</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <f aca="false">-B126*$B$3-$B$4*C126+$B$2*0.81</f>
+        <v>-1.18904885937354E-012</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <f aca="false">B126+C127*(A127-A126)</f>
+        <v>0.0404999999999049</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <f aca="false">C126+D126*(A127-A126)</f>
+        <v>2.37786576368635E-013</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <f aca="false">E127/$B$2</f>
+        <v>-4.75619543749417E-013</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <f aca="false">-B127*$B$3-$B$4*C127+$B$2*0.81</f>
+        <v>-9.51239087498834E-013</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <f aca="false">B127+C128*(A128-A127)</f>
+        <v>0.0404999999999239</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <f aca="false">C127+D127*(A128-A127)</f>
+        <v>1.90224621993693E-013</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <f aca="false">E128/$B$2</f>
+        <v>-3.80362408236579E-013</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <f aca="false">-B128*$B$3-$B$4*C128+$B$2*0.81</f>
+        <v>-7.60724816473157E-013</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <f aca="false">B128+C129*(A129-A128)</f>
+        <v>0.0404999999999391</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <f aca="false">C128+D128*(A129-A128)</f>
+        <v>1.52188381170036E-013</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <f aca="false">E129/$B$2</f>
+        <v>-3.04423153352218E-013</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <f aca="false">-B129*$B$3-$B$4*C129+$B$2*0.81</f>
+        <v>-6.08846306704436E-013</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <f aca="false">B129+C130*(A130-A129)</f>
+        <v>0.0404999999999513</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <f aca="false">C129+D129*(A130-A129)</f>
+        <v>1.21746065834814E-013</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <f aca="false">E130/$B$2</f>
+        <v>-2.43471909300297E-013</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <f aca="false">-B130*$B$3-$B$4*C130+$B$2*0.81</f>
+        <v>-4.86943818600594E-013</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <f aca="false">B130+C131*(A131-A130)</f>
+        <v>0.040499999999961</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <f aca="false">C130+D130*(A131-A130)</f>
+        <v>9.73988749047845E-014</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <f aca="false">E131/$B$2</f>
+        <v>-1.94844140821715E-013</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <f aca="false">-B131*$B$3-$B$4*C131+$B$2*0.81</f>
+        <v>-3.8968828164343E-013</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <f aca="false">B131+C132*(A132-A131)</f>
+        <v>0.0404999999999688</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <f aca="false">C131+D131*(A132-A131)</f>
+        <v>7.79144608226131E-014</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <f aca="false">E132/$B$2</f>
+        <v>-1.55875312657372E-013</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <f aca="false">-B132*$B$3-$B$4*C132+$B$2*0.81</f>
+        <v>-3.11750625314744E-013</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <f aca="false">B132+C133*(A133-A132)</f>
+        <v>0.0404999999999751</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <f aca="false">C132+D132*(A133-A132)</f>
+        <v>6.23269295568759E-014</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <f aca="false">E133/$B$2</f>
+        <v>-1.24567023362943E-013</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <f aca="false">-B133*$B$3-$B$4*C133+$B$2*0.81</f>
+        <v>-2.49134046725885E-013</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <f aca="false">B133+C134*(A134-A133)</f>
+        <v>0.0404999999999801</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <f aca="false">C133+D133*(A134-A133)</f>
+        <v>4.98702272205817E-014</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <f aca="false">E134/$B$2</f>
+        <v>-9.98090499138016E-014</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <f aca="false">-B134*$B$3-$B$4*C134+$B$2*0.81</f>
+        <v>-1.99618099827603E-013</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <f aca="false">B134+C135*(A135-A134)</f>
+        <v>0.040499999999984</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <f aca="false">C134+D134*(A135-A134)</f>
+        <v>3.98893222292016E-014</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <f aca="false">E135/$B$2</f>
+        <v>-7.98250354705488E-014</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <f aca="false">-B135*$B$3-$B$4*C135+$B$2*0.81</f>
+        <v>-1.59650070941098E-013</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <f aca="false">B135+C136*(A136-A135)</f>
+        <v>0.0404999999999872</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <f aca="false">C135+D135*(A136-A135)</f>
+        <v>3.19068186821467E-014</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <f aca="false">E136/$B$2</f>
+        <v>-6.38378239159465E-014</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <f aca="false">-B136*$B$3-$B$4*C136+$B$2*0.81</f>
+        <v>-1.27675647831893E-013</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <f aca="false">B136+C137*(A137-A136)</f>
+        <v>0.0404999999999898</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <f aca="false">C136+D136*(A137-A136)</f>
+        <v>2.55230362905521E-014</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <f aca="false">E137/$B$2</f>
+        <v>-5.10702591327572E-014</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <f aca="false">-B137*$B$3-$B$4*C137+$B$2*0.81</f>
+        <v>-1.02140518265514E-013</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <f aca="false">B137+C138*(A138-A137)</f>
+        <v>0.0404999999999918</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <f aca="false">C137+D137*(A138-A137)</f>
+        <v>2.04160103772764E-014</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <f aca="false">E138/$B$2</f>
+        <v>-4.07451850037432E-014</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <f aca="false">-B138*$B$3-$B$4*C138+$B$2*0.81</f>
+        <v>-8.14903700074865E-014</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <f aca="false">B138+C139*(A139-A138)</f>
+        <v>0.0404999999999935</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <f aca="false">C138+D138*(A139-A138)</f>
+        <v>1.63414918769021E-014</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <f aca="false">E139/$B$2</f>
+        <v>-3.28626015289046E-014</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <f aca="false">-B139*$B$3-$B$4*C139+$B$2*0.81</f>
+        <v>-6.57252030578093E-014</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <f aca="false">B139+C140*(A140-A139)</f>
+        <v>0.0404999999999948</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <f aca="false">C139+D139*(A140-A139)</f>
+        <v>1.30552317240116E-014</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <f aca="false">E140/$B$2</f>
+        <v>-2.59792187762287E-014</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <f aca="false">-B140*$B$3-$B$4*C140+$B$2*0.81</f>
+        <v>-5.19584375524573E-014</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <f aca="false">B140+C141*(A141-A140)</f>
+        <v>0.0404999999999958</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <f aca="false">C140+D140*(A141-A140)</f>
+        <v>1.04573098463888E-014</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <f aca="false">E141/$B$2</f>
+        <v>-2.09832151654155E-014</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <f aca="false">-B141*$B$3-$B$4*C141+$B$2*0.81</f>
+        <v>-4.19664303308309E-014</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <f aca="false">B141+C142*(A142-A141)</f>
+        <v>0.0404999999999967</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <f aca="false">C141+D141*(A142-A141)</f>
+        <v>8.35898832984725E-015</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <f aca="false">E142/$B$2</f>
+        <v>-1.66533453693773E-014</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <f aca="false">-B142*$B$3-$B$4*C142+$B$2*0.81</f>
+        <v>-3.33066907387547E-014</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <f aca="false">B142+C143*(A143-A142)</f>
+        <v>0.0404999999999973</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <f aca="false">C142+D142*(A143-A142)</f>
+        <v>6.69365379290953E-015</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <f aca="false">E143/$B$2</f>
+        <v>-1.33226762955019E-014</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <f aca="false">-B143*$B$3-$B$4*C143+$B$2*0.81</f>
+        <v>-2.66453525910038E-014</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <f aca="false">B143+C144*(A144-A143)</f>
+        <v>0.0404999999999979</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <f aca="false">C143+D143*(A144-A143)</f>
+        <v>5.36138616335934E-015</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <f aca="false">E144/$B$2</f>
+        <v>-1.0769163338864E-014</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <f aca="false">-B144*$B$3-$B$4*C144+$B$2*0.81</f>
+        <v>-2.1538326677728E-014</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <f aca="false">B144+C145*(A145-A144)</f>
+        <v>0.0404999999999983</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <f aca="false">C144+D144*(A145-A144)</f>
+        <v>4.28446982947294E-015</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <f aca="false">E145/$B$2</f>
+        <v>-8.54871728961371E-015</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <f aca="false">-B145*$B$3-$B$4*C145+$B$2*0.81</f>
+        <v>-1.70974345792274E-014</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <f aca="false">B145+C146*(A146-A145)</f>
+        <v>0.0404999999999986</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <f aca="false">C145+D145*(A146-A145)</f>
+        <v>3.42959810051158E-015</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <f aca="false">E146/$B$2</f>
+        <v>-6.77236045021345E-015</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <f aca="false">-B146*$B$3-$B$4*C146+$B$2*0.81</f>
+        <v>-1.35447209004269E-014</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <f aca="false">B146+C147*(A147-A146)</f>
+        <v>0.0404999999999989</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <f aca="false">C146+D146*(A147-A146)</f>
+        <v>2.75236205549023E-015</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <f aca="false">E147/$B$2</f>
+        <v>-5.55111512312578E-015</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <f aca="false">-B147*$B$3-$B$4*C147+$B$2*0.81</f>
+        <v>-1.11022302462516E-014</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <f aca="false">B147+C148*(A148-A147)</f>
+        <v>0.0404999999999991</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <f aca="false">C147+D147*(A148-A147)</f>
+        <v>2.19725054317766E-015</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <f aca="false">E148/$B$2</f>
+        <v>-4.44089209850063E-015</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <f aca="false">-B148*$B$3-$B$4*C148+$B$2*0.81</f>
+        <v>-8.88178419700125E-015</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <f aca="false">B148+C149*(A149-A148)</f>
+        <v>0.0404999999999993</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <f aca="false">C148+D148*(A149-A148)</f>
+        <v>1.7531613333276E-015</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <f aca="false">E149/$B$2</f>
+        <v>-3.5527136788005E-015</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <f aca="false">-B149*$B$3-$B$4*C149+$B$2*0.81</f>
+        <v>-7.105427357601E-015</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <f aca="false">B149+C150*(A150-A149)</f>
+        <v>0.0404999999999994</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <f aca="false">C149+D149*(A150-A149)</f>
+        <v>1.39788996544755E-015</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <f aca="false">E150/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <f aca="false">-B150*$B$3-$B$4*C150+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <f aca="false">B150+C151*(A151-A150)</f>
+        <v>0.0404999999999996</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <f aca="false">C150+D150*(A151-A150)</f>
+        <v>1.39788996544755E-015</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <f aca="false">E151/$B$2</f>
+        <v>-5.55111512312578E-015</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <f aca="false">-B151*$B$3-$B$4*C151+$B$2*0.81</f>
+        <v>-1.11022302462516E-014</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <f aca="false">B151+C152*(A152-A151)</f>
+        <v>0.0404999999999997</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <f aca="false">C151+D151*(A152-A151)</f>
+        <v>8.4277845313497E-016</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <f aca="false">E152/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <f aca="false">-B152*$B$3-$B$4*C152+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <f aca="false">B152+C153*(A153-A152)</f>
+        <v>0.0404999999999997</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <f aca="false">C152+D152*(A153-A152)</f>
+        <v>8.4277845313497E-016</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <f aca="false">E153/$B$2</f>
+        <v>-3.33066907387547E-015</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <f aca="false">-B153*$B$3-$B$4*C153+$B$2*0.81</f>
+        <v>-6.66133814775094E-015</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <f aca="false">B153+C154*(A154-A153)</f>
+        <v>0.0404999999999998</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <f aca="false">C153+D153*(A154-A153)</f>
+        <v>5.09711545747425E-016</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <f aca="false">E154/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <f aca="false">-B154*$B$3-$B$4*C154+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <f aca="false">B154+C155*(A155-A154)</f>
+        <v>0.0404999999999998</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <f aca="false">C154+D154*(A155-A154)</f>
+        <v>5.09711545747425E-016</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <f aca="false">E155/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <f aca="false">-B155*$B$3-$B$4*C155+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <f aca="false">B155+C156*(A156-A155)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <f aca="false">C155+D155*(A156-A155)</f>
+        <v>5.09711545747425E-016</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <f aca="false">E156/$B$2</f>
+        <v>-2.88657986402541E-015</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <f aca="false">-B156*$B$3-$B$4*C156+$B$2*0.81</f>
+        <v>-5.77315972805081E-015</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <f aca="false">B156+C157*(A157-A156)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <f aca="false">C156+D156*(A157-A156)</f>
+        <v>2.21053559344885E-016</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <f aca="false">E157/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <f aca="false">-B157*$B$3-$B$4*C157+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <f aca="false">B157+C158*(A158-A157)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <f aca="false">C157+D157*(A158-A157)</f>
+        <v>2.21053559344885E-016</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <f aca="false">E158/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <f aca="false">-B158*$B$3-$B$4*C158+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <f aca="false">B158+C159*(A159-A158)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <f aca="false">C158+D158*(A159-A158)</f>
+        <v>2.21053559344885E-016</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <f aca="false">E159/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <f aca="false">-B159*$B$3-$B$4*C159+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <f aca="false">B159+C160*(A160-A159)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <f aca="false">C159+D159*(A160-A159)</f>
+        <v>2.21053559344885E-016</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <f aca="false">E160/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <f aca="false">-B160*$B$3-$B$4*C160+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <f aca="false">B160+C161*(A161-A160)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <f aca="false">C160+D160*(A161-A160)</f>
+        <v>2.21053559344885E-016</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <f aca="false">E161/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <f aca="false">-B161*$B$3-$B$4*C161+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <f aca="false">B161+C162*(A162-A161)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <f aca="false">C161+D161*(A162-A161)</f>
+        <v>2.21053559344885E-016</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <f aca="false">E162/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <f aca="false">-B162*$B$3-$B$4*C162+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <f aca="false">B162+C163*(A163-A162)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <f aca="false">C162+D162*(A163-A162)</f>
+        <v>2.21053559344885E-016</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <f aca="false">E163/$B$2</f>
+        <v>-2.88657986402541E-015</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <f aca="false">-B163*$B$3-$B$4*C163+$B$2*0.81</f>
+        <v>-5.77315972805081E-015</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <f aca="false">B163+C164*(A164-A163)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <f aca="false">C163+D163*(A164-A163)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <f aca="false">E164/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <f aca="false">-B164*$B$3-$B$4*C164+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <f aca="false">B164+C165*(A165-A164)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <f aca="false">C164+D164*(A165-A164)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <f aca="false">E165/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <f aca="false">-B165*$B$3-$B$4*C165+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <f aca="false">B165+C166*(A166-A165)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <f aca="false">C165+D165*(A166-A165)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <f aca="false">E166/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <f aca="false">-B166*$B$3-$B$4*C166+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <f aca="false">B166+C167*(A167-A166)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <f aca="false">C166+D166*(A167-A166)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <f aca="false">E167/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <f aca="false">-B167*$B$3-$B$4*C167+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <f aca="false">B167+C168*(A168-A167)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <f aca="false">C167+D167*(A168-A167)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <f aca="false">E168/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <f aca="false">-B168*$B$3-$B$4*C168+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <f aca="false">B168+C169*(A169-A168)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <f aca="false">C168+D168*(A169-A168)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <f aca="false">E169/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <f aca="false">-B169*$B$3-$B$4*C169+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <f aca="false">B169+C170*(A170-A169)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <f aca="false">C169+D169*(A170-A169)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <f aca="false">E170/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <f aca="false">-B170*$B$3-$B$4*C170+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <f aca="false">B170+C171*(A171-A170)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <f aca="false">C170+D170*(A171-A170)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <f aca="false">E171/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <f aca="false">-B171*$B$3-$B$4*C171+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <f aca="false">B171+C172*(A172-A171)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <f aca="false">C171+D171*(A172-A171)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <f aca="false">E172/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <f aca="false">-B172*$B$3-$B$4*C172+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <f aca="false">B172+C173*(A173-A172)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <f aca="false">C172+D172*(A173-A172)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <f aca="false">E173/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <f aca="false">-B173*$B$3-$B$4*C173+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <f aca="false">B173+C174*(A174-A173)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <f aca="false">C173+D173*(A174-A173)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <f aca="false">E174/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <f aca="false">-B174*$B$3-$B$4*C174+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <f aca="false">B174+C175*(A175-A174)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <f aca="false">C174+D174*(A175-A174)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <f aca="false">E175/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <f aca="false">-B175*$B$3-$B$4*C175+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <f aca="false">B175+C176*(A176-A175)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <f aca="false">C175+D175*(A176-A175)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <f aca="false">E176/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <f aca="false">-B176*$B$3-$B$4*C176+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <f aca="false">B176+C177*(A177-A176)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <f aca="false">C176+D176*(A177-A176)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <f aca="false">E177/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <f aca="false">-B177*$B$3-$B$4*C177+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <f aca="false">B177+C178*(A178-A177)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <f aca="false">C177+D177*(A178-A177)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <f aca="false">E178/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <f aca="false">-B178*$B$3-$B$4*C178+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <f aca="false">B178+C179*(A179-A178)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <f aca="false">C178+D178*(A179-A178)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <f aca="false">E179/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <f aca="false">-B179*$B$3-$B$4*C179+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <f aca="false">B179+C180*(A180-A179)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <f aca="false">C179+D179*(A180-A179)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <f aca="false">E180/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <f aca="false">-B180*$B$3-$B$4*C180+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <f aca="false">B180+C181*(A181-A180)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <f aca="false">C180+D180*(A181-A180)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <f aca="false">E181/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <f aca="false">-B181*$B$3-$B$4*C181+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <f aca="false">B181+C182*(A182-A181)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <f aca="false">C181+D181*(A182-A181)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <f aca="false">E182/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <f aca="false">-B182*$B$3-$B$4*C182+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <f aca="false">B182+C183*(A183-A182)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <f aca="false">C182+D182*(A183-A182)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <f aca="false">E183/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <f aca="false">-B183*$B$3-$B$4*C183+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <f aca="false">B183+C184*(A184-A183)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <f aca="false">C183+D183*(A184-A183)</f>
+        <v>-6.76044270576547E-017</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <f aca="false">E184/$B$2</f>
+        <v>2.88657986402541E-015</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <f aca="false">-B184*$B$3-$B$4*C184+$B$2*0.81</f>
+        <v>5.77315972805081E-015</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <f aca="false">B184+C185*(A185-A184)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <f aca="false">C184+D184*(A185-A184)</f>
+        <v>2.2105355934488E-016</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <f aca="false">E185/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <f aca="false">-B185*$B$3-$B$4*C185+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <f aca="false">B185+C186*(A186-A185)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <f aca="false">C185+D185*(A186-A185)</f>
+        <v>2.2105355934488E-016</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <f aca="false">E186/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <f aca="false">-B186*$B$3-$B$4*C186+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <f aca="false">B186+C187*(A187-A186)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <f aca="false">C186+D186*(A187-A186)</f>
+        <v>2.2105355934488E-016</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <f aca="false">E187/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <f aca="false">-B187*$B$3-$B$4*C187+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <f aca="false">B187+C188*(A188-A187)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <f aca="false">C187+D187*(A188-A187)</f>
+        <v>2.2105355934488E-016</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <f aca="false">E188/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <f aca="false">-B188*$B$3-$B$4*C188+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <f aca="false">B188+C189*(A189-A188)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <f aca="false">C188+D188*(A189-A188)</f>
+        <v>2.2105355934488E-016</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <f aca="false">E189/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <f aca="false">-B189*$B$3-$B$4*C189+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <f aca="false">B189+C190*(A190-A189)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <f aca="false">C189+D189*(A190-A189)</f>
+        <v>2.2105355934488E-016</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <f aca="false">E190/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <f aca="false">-B190*$B$3-$B$4*C190+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <f aca="false">B190+C191*(A191-A190)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <f aca="false">C190+D190*(A191-A190)</f>
+        <v>2.2105355934488E-016</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <f aca="false">E191/$B$2</f>
+        <v>-2.88657986402541E-015</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <f aca="false">-B191*$B$3-$B$4*C191+$B$2*0.81</f>
+        <v>-5.77315972805081E-015</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="B192" s="0" t="n">
+        <f aca="false">B191+C192*(A192-A191)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <f aca="false">C191+D191*(A192-A191)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <f aca="false">E192/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <f aca="false">-B192*$B$3-$B$4*C192+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <f aca="false">B192+C193*(A193-A192)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <f aca="false">C192+D192*(A193-A192)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <f aca="false">E193/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <f aca="false">-B193*$B$3-$B$4*C193+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <f aca="false">B193+C194*(A194-A193)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <f aca="false">C193+D193*(A194-A193)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <f aca="false">E194/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <f aca="false">-B194*$B$3-$B$4*C194+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <f aca="false">B194+C195*(A195-A194)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <f aca="false">C194+D194*(A195-A194)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <f aca="false">E195/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <f aca="false">-B195*$B$3-$B$4*C195+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="B196" s="0" t="n">
+        <f aca="false">B195+C196*(A196-A195)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <f aca="false">C195+D195*(A196-A195)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <f aca="false">E196/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <f aca="false">-B196*$B$3-$B$4*C196+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <f aca="false">B196+C197*(A197-A196)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <f aca="false">C196+D196*(A197-A196)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <f aca="false">E197/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <f aca="false">-B197*$B$3-$B$4*C197+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="B198" s="0" t="n">
+        <f aca="false">B197+C198*(A198-A197)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <f aca="false">C197+D197*(A198-A197)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <f aca="false">E198/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <f aca="false">-B198*$B$3-$B$4*C198+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <f aca="false">B198+C199*(A199-A198)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <f aca="false">C198+D198*(A199-A198)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <f aca="false">E199/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <f aca="false">-B199*$B$3-$B$4*C199+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <f aca="false">B199+C200*(A200-A199)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <f aca="false">C199+D199*(A200-A199)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <f aca="false">E200/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <f aca="false">-B200*$B$3-$B$4*C200+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <f aca="false">B200+C201*(A201-A200)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <f aca="false">C200+D200*(A201-A200)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <f aca="false">E201/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <f aca="false">-B201*$B$3-$B$4*C201+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="B202" s="0" t="n">
+        <f aca="false">B201+C202*(A202-A201)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <f aca="false">C201+D201*(A202-A201)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <f aca="false">E202/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <f aca="false">-B202*$B$3-$B$4*C202+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <f aca="false">B202+C203*(A203-A202)</f>
+        <v>0.0405</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <f aca="false">C202+D202*(A203-A202)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <f aca="false">E203/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <f aca="false">-B203*$B$3-$B$4*C203+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="B204" s="0" t="n">
+        <f aca="false">B203+C204*(A204-A203)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C204" s="0" t="n">
+        <f aca="false">C203+D203*(A204-A203)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <f aca="false">E204/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <f aca="false">-B204*$B$3-$B$4*C204+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <f aca="false">B204+C205*(A205-A204)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <f aca="false">C204+D204*(A205-A204)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <f aca="false">E205/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <f aca="false">-B205*$B$3-$B$4*C205+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <f aca="false">B205+C206*(A206-A205)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <f aca="false">C205+D205*(A206-A205)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <f aca="false">E206/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <f aca="false">-B206*$B$3-$B$4*C206+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <f aca="false">B206+C207*(A207-A206)</f>
+        <v>0.0404999999999999</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <f aca="false">C206+D206*(A207-A206)</f>
+        <v>-6.76044270576649E-017</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <f aca="false">E207/$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <f aca="false">-B207*$B$3-$B$4*C207+$B$2*0.81</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>